--- a/VytrackTestUsers.xlsx
+++ b/VytrackTestUsers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufjon/IdeaProjects/va-spring-2019-selenium-testng/src/test/resources/"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3916" uniqueCount="1481">
   <si>
     <t>username</t>
   </si>
@@ -4470,12 +4470,22 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Date of Execution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4829,8 +4839,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -9073,8 +9083,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -9412,8 +9422,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -13659,8 +13669,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -13998,8 +14008,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -18237,7 +18247,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C30F00C-C683-0548-B7C4-02FB1EBCAEF1}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -18245,8 +18255,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -18268,6 +18278,9 @@
       <c r="F1" t="s">
         <v>1476</v>
       </c>
+      <c r="G1" t="s">
+        <v>1480</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -18286,7 +18299,7 @@
         <v>305</v>
       </c>
       <c r="F2" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">

--- a/VytrackTestUsers.xlsx
+++ b/VytrackTestUsers.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufjon/IdeaProjects/va-spring-2019-selenium-testng/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biomu\IdeaProjects\Fall2019Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDDC9C1-934F-044B-80DB-58DA20C1AFF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41120" yWindow="1540" windowWidth="33600" windowHeight="18920" activeTab="5" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
+    <workbookView xWindow="41120" yWindow="1540" windowWidth="33600" windowHeight="18920" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="QA1-all" sheetId="4" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3916" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="1481">
   <si>
     <t>username</t>
   </si>
@@ -4472,19 +4471,19 @@
     <t>n/a</t>
   </si>
   <si>
+    <t>FAILED</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>Date of Execution</t>
+    <t>SKIPPED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -4519,7 +4518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4830,20 +4829,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D70E95-9193-2444-8F5D-57688B5675B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView topLeftCell="A212" zoomScale="200" workbookViewId="0">
       <selection activeCell="A231" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4871,7 +4870,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4899,7 +4898,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4913,7 +4912,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4927,7 +4926,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4941,7 +4940,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4983,7 +4982,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4997,7 +4996,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5011,7 +5010,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5025,7 +5024,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5039,7 +5038,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5053,7 +5052,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5067,7 +5066,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5081,7 +5080,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5095,7 +5094,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5109,7 +5108,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5123,7 +5122,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5137,7 +5136,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -5165,7 +5164,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5193,7 +5192,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5221,7 +5220,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5235,7 +5234,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5249,7 +5248,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5263,7 +5262,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5277,7 +5276,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5291,7 +5290,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5305,7 +5304,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5319,7 +5318,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5333,7 +5332,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5347,7 +5346,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5361,7 +5360,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5375,7 +5374,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5389,7 +5388,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5403,7 +5402,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -5431,7 +5430,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -5459,7 +5458,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5487,7 +5486,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5501,7 +5500,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5515,7 +5514,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5529,7 +5528,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5543,7 +5542,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5557,7 +5556,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5571,7 +5570,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5585,7 +5584,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5599,7 +5598,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5641,7 +5640,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5655,7 +5654,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5669,7 +5668,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5683,7 +5682,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5697,7 +5696,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5725,7 +5724,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -5739,7 +5738,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5753,7 +5752,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5781,7 +5780,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5837,7 +5836,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5851,7 +5850,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5879,7 +5878,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5893,7 +5892,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5907,7 +5906,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -5935,7 +5934,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5963,7 +5962,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -5977,7 +5976,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5991,7 +5990,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -6005,7 +6004,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6019,7 +6018,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6033,7 +6032,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -6061,7 +6060,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -6075,7 +6074,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -6103,7 +6102,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -6117,7 +6116,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -6131,7 +6130,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -6145,7 +6144,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -6159,7 +6158,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -6173,7 +6172,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -6187,7 +6186,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -6215,7 +6214,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6229,7 +6228,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -6243,7 +6242,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -6257,7 +6256,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6285,7 +6284,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6299,7 +6298,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -6327,7 +6326,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -6355,7 +6354,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -6369,7 +6368,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -6383,7 +6382,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -6397,7 +6396,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -6411,7 +6410,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -6453,7 +6452,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -6495,7 +6494,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -6509,7 +6508,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -6537,7 +6536,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -6551,7 +6550,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -6593,7 +6592,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -6607,7 +6606,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -6621,7 +6620,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -6635,7 +6634,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -6649,7 +6648,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -6663,7 +6662,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -6691,7 +6690,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -6705,7 +6704,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -6719,7 +6718,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -6733,7 +6732,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -6747,7 +6746,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -6761,7 +6760,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -6775,7 +6774,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -6803,7 +6802,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -6817,7 +6816,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -6831,7 +6830,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -6845,7 +6844,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -6859,7 +6858,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -6887,7 +6886,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -6901,7 +6900,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -6943,7 +6942,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -6957,7 +6956,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -6971,7 +6970,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -6985,7 +6984,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -6999,7 +6998,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -7027,7 +7026,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -7041,7 +7040,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -7083,7 +7082,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -7097,7 +7096,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -7125,7 +7124,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -7139,7 +7138,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -7153,7 +7152,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -7167,7 +7166,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -7181,7 +7180,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -7195,7 +7194,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -7209,7 +7208,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -7223,7 +7222,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -7237,7 +7236,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -7265,7 +7264,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -7279,7 +7278,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -7293,7 +7292,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -7307,7 +7306,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -7335,7 +7334,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -7349,7 +7348,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -7377,7 +7376,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -7391,7 +7390,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -7419,7 +7418,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -7447,7 +7446,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -7475,7 +7474,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -7489,7 +7488,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -7503,7 +7502,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -7517,7 +7516,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -7531,7 +7530,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -7545,7 +7544,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -7559,7 +7558,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -7573,7 +7572,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -7587,7 +7586,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -7601,7 +7600,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -7643,7 +7642,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -7671,7 +7670,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -7685,7 +7684,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -7699,7 +7698,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -7713,7 +7712,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -7727,7 +7726,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -7755,7 +7754,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -7769,7 +7768,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -7783,7 +7782,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -7811,7 +7810,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -7825,7 +7824,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -7839,7 +7838,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -7853,7 +7852,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -7867,7 +7866,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -7881,7 +7880,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -7895,7 +7894,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -7909,7 +7908,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -7923,7 +7922,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -7937,7 +7936,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -7951,7 +7950,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -7965,7 +7964,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -7979,7 +7978,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -7993,7 +7992,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -8007,7 +8006,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -8021,7 +8020,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -8035,7 +8034,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -8063,7 +8062,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -8077,7 +8076,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -8091,7 +8090,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -8119,7 +8118,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -8133,7 +8132,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -8147,7 +8146,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -8161,7 +8160,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -8175,7 +8174,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -8189,7 +8188,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -8203,7 +8202,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -8217,7 +8216,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -8231,7 +8230,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -8245,7 +8244,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -8259,7 +8258,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -8273,7 +8272,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -8287,7 +8286,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -8301,7 +8300,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -8315,7 +8314,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -8329,7 +8328,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -8343,7 +8342,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -8357,7 +8356,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -8371,7 +8370,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -8385,7 +8384,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -8399,7 +8398,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -8427,7 +8426,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -8441,7 +8440,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -8469,7 +8468,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -8483,7 +8482,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -8497,7 +8496,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -8511,7 +8510,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -8525,7 +8524,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -8539,7 +8538,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -8553,7 +8552,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -8567,7 +8566,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -8581,7 +8580,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -8595,7 +8594,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -8609,7 +8608,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -8623,7 +8622,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -8637,7 +8636,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -8651,7 +8650,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -8665,7 +8664,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -8679,7 +8678,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -8721,7 +8720,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -8735,7 +8734,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -8749,7 +8748,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -8763,7 +8762,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -8777,7 +8776,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -8791,7 +8790,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -8805,7 +8804,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -8819,7 +8818,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -8833,7 +8832,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -8847,7 +8846,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -8861,7 +8860,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -8875,7 +8874,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -8889,7 +8888,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -8903,7 +8902,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -8917,7 +8916,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -8931,7 +8930,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -8945,7 +8944,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -8959,7 +8958,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -8973,7 +8972,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -8987,7 +8986,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -9001,7 +9000,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -9015,7 +9014,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -9029,7 +9028,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -9043,7 +9042,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -9057,7 +9056,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -9074,20 +9073,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25414FC-EB42-5647-8F63-8642E32C4CF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1473</v>
       </c>
@@ -9107,7 +9106,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1474</v>
       </c>
@@ -9127,7 +9126,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1474</v>
       </c>
@@ -9147,7 +9146,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1475</v>
       </c>
@@ -9167,7 +9166,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1475</v>
       </c>
@@ -9187,7 +9186,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1475</v>
       </c>
@@ -9207,7 +9206,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1474</v>
       </c>
@@ -9227,7 +9226,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1474</v>
       </c>
@@ -9247,7 +9246,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1475</v>
       </c>
@@ -9267,7 +9266,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1475</v>
       </c>
@@ -9287,7 +9286,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1475</v>
       </c>
@@ -9307,7 +9306,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1474</v>
       </c>
@@ -9327,7 +9326,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1474</v>
       </c>
@@ -9347,7 +9346,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1475</v>
       </c>
@@ -9367,7 +9366,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1475</v>
       </c>
@@ -9387,7 +9386,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1475</v>
       </c>
@@ -9413,20 +9412,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E126431-3714-5A42-8C23-7F054B5E2FB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView topLeftCell="A197" zoomScale="223" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9440,7 +9439,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9454,7 +9453,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9468,7 +9467,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9482,7 +9481,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9496,7 +9495,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9510,7 +9509,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9524,7 +9523,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9552,7 +9551,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9566,7 +9565,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -9580,7 +9579,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9594,7 +9593,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9608,7 +9607,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -9636,7 +9635,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -9650,7 +9649,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -9664,7 +9663,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -9678,7 +9677,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -9692,7 +9691,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -9706,7 +9705,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -9734,7 +9733,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -9748,7 +9747,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -9762,7 +9761,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -9776,7 +9775,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -9790,7 +9789,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -9804,7 +9803,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -9818,7 +9817,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -9832,7 +9831,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -9846,7 +9845,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -9860,7 +9859,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -9874,7 +9873,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -9888,7 +9887,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -9902,7 +9901,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -9916,7 +9915,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -9930,7 +9929,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -9944,7 +9943,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -9958,7 +9957,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -9972,7 +9971,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -9986,7 +9985,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -10000,7 +9999,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -10014,7 +10013,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -10028,7 +10027,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -10042,7 +10041,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -10056,7 +10055,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -10070,7 +10069,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -10098,7 +10097,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -10112,7 +10111,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -10126,7 +10125,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -10140,7 +10139,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -10154,7 +10153,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -10168,7 +10167,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -10182,7 +10181,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -10196,7 +10195,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -10210,7 +10209,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -10224,7 +10223,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -10238,7 +10237,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -10252,7 +10251,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -10266,7 +10265,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -10280,7 +10279,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -10294,7 +10293,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -10308,7 +10307,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -10322,7 +10321,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -10336,7 +10335,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -10350,7 +10349,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -10364,7 +10363,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -10378,7 +10377,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -10392,7 +10391,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -10406,7 +10405,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -10420,7 +10419,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -10434,7 +10433,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -10462,7 +10461,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -10476,7 +10475,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -10490,7 +10489,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -10504,7 +10503,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -10518,7 +10517,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -10532,7 +10531,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -10546,7 +10545,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -10560,7 +10559,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -10574,7 +10573,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -10588,7 +10587,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -10602,7 +10601,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -10616,7 +10615,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -10630,7 +10629,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -10644,7 +10643,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -10658,7 +10657,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -10672,7 +10671,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -10686,7 +10685,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -10700,7 +10699,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -10714,7 +10713,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -10728,7 +10727,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -10742,7 +10741,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -10756,7 +10755,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -10770,7 +10769,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -10784,7 +10783,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -10798,7 +10797,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -10812,7 +10811,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -10826,7 +10825,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -10840,7 +10839,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -10854,7 +10853,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -10868,7 +10867,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -10882,7 +10881,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -10896,7 +10895,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -10910,7 +10909,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -10924,7 +10923,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -10938,7 +10937,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -10952,7 +10951,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -10966,7 +10965,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -10980,7 +10979,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -10994,7 +10993,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -11008,7 +11007,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -11022,7 +11021,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -11036,7 +11035,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -11050,7 +11049,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -11064,7 +11063,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -11078,7 +11077,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -11092,7 +11091,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -11106,7 +11105,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -11120,7 +11119,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -11134,7 +11133,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -11148,7 +11147,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -11162,7 +11161,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -11176,7 +11175,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -11190,7 +11189,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -11204,7 +11203,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -11218,7 +11217,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -11232,7 +11231,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -11246,7 +11245,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -11260,7 +11259,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -11274,7 +11273,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -11288,7 +11287,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -11302,7 +11301,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -11316,7 +11315,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -11330,7 +11329,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -11344,7 +11343,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -11358,7 +11357,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -11372,7 +11371,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -11386,7 +11385,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -11400,7 +11399,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -11414,7 +11413,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -11428,7 +11427,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -11442,7 +11441,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -11456,7 +11455,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -11470,7 +11469,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -11484,7 +11483,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -11498,7 +11497,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -11512,7 +11511,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -11526,7 +11525,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -11540,7 +11539,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -11554,7 +11553,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -11568,7 +11567,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -11582,7 +11581,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -11596,7 +11595,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -11610,7 +11609,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -11624,7 +11623,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -11638,7 +11637,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -11652,7 +11651,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -11666,7 +11665,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -11680,7 +11679,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -11694,7 +11693,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -11708,7 +11707,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -11722,7 +11721,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -11736,7 +11735,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -11750,7 +11749,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -11764,7 +11763,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -11778,7 +11777,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -11792,7 +11791,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -11806,7 +11805,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -11820,7 +11819,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -11834,7 +11833,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -11848,7 +11847,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -11862,7 +11861,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -11876,7 +11875,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -11890,7 +11889,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -11904,7 +11903,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -11918,7 +11917,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -11932,7 +11931,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -11946,7 +11945,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -11960,7 +11959,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -11974,7 +11973,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -11988,7 +11987,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -12002,7 +12001,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -12016,7 +12015,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -12030,7 +12029,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -12044,7 +12043,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -12058,7 +12057,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -12072,7 +12071,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -12086,7 +12085,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -12100,7 +12099,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -12114,7 +12113,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -12128,7 +12127,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -12142,7 +12141,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -12156,7 +12155,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -12170,7 +12169,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -12184,7 +12183,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -12198,7 +12197,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -12212,7 +12211,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -12226,7 +12225,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -12240,7 +12239,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -12254,7 +12253,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -12268,7 +12267,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -12282,7 +12281,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -12296,7 +12295,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -12310,7 +12309,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -12324,7 +12323,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -12338,7 +12337,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -12352,7 +12351,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -12366,7 +12365,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -12380,7 +12379,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -12394,7 +12393,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -12408,7 +12407,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -12422,7 +12421,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -12436,7 +12435,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -12450,7 +12449,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -12464,7 +12463,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -12478,7 +12477,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -12492,7 +12491,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -12506,7 +12505,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -12520,7 +12519,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -12548,7 +12547,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -12562,7 +12561,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -12576,7 +12575,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -12590,7 +12589,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -12604,7 +12603,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -12618,7 +12617,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -12632,7 +12631,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -12646,7 +12645,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -12660,7 +12659,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -12674,7 +12673,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -12688,7 +12687,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -12702,7 +12701,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -12716,7 +12715,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -12730,7 +12729,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -12744,7 +12743,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -12758,7 +12757,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -12772,7 +12771,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -12786,7 +12785,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -12800,7 +12799,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -12814,7 +12813,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -12828,7 +12827,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -12842,7 +12841,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -12856,7 +12855,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -12870,7 +12869,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -12884,7 +12883,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -12898,7 +12897,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -12912,7 +12911,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -12926,7 +12925,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -12940,7 +12939,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -12954,7 +12953,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -12968,7 +12967,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -12982,7 +12981,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -12996,7 +12995,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -13010,7 +13009,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -13024,7 +13023,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -13038,7 +13037,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -13052,7 +13051,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -13066,7 +13065,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -13080,7 +13079,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -13094,7 +13093,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -13108,7 +13107,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -13122,7 +13121,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -13136,7 +13135,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -13150,7 +13149,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -13164,7 +13163,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -13178,7 +13177,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -13192,7 +13191,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -13206,7 +13205,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -13220,7 +13219,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -13234,7 +13233,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -13248,7 +13247,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -13262,7 +13261,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -13276,7 +13275,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -13290,7 +13289,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -13304,7 +13303,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -13318,7 +13317,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -13332,7 +13331,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -13346,7 +13345,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -13360,7 +13359,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -13374,7 +13373,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -13388,7 +13387,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -13402,7 +13401,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -13416,7 +13415,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -13430,7 +13429,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -13444,7 +13443,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -13458,7 +13457,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -13472,7 +13471,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -13486,7 +13485,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -13500,7 +13499,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -13514,7 +13513,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -13528,7 +13527,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -13542,7 +13541,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -13556,7 +13555,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -13570,7 +13569,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -13584,7 +13583,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -13598,7 +13597,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -13612,7 +13611,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -13626,7 +13625,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -13640,7 +13639,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -13660,20 +13659,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE515BF-79FE-384F-8A87-78DFBA2D1E2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="223" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1473</v>
       </c>
@@ -13693,7 +13692,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1474</v>
       </c>
@@ -13713,7 +13712,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1474</v>
       </c>
@@ -13733,7 +13732,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1475</v>
       </c>
@@ -13753,7 +13752,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1475</v>
       </c>
@@ -13773,7 +13772,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1475</v>
       </c>
@@ -13793,7 +13792,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1474</v>
       </c>
@@ -13813,7 +13812,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1474</v>
       </c>
@@ -13833,7 +13832,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1475</v>
       </c>
@@ -13853,7 +13852,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1475</v>
       </c>
@@ -13873,7 +13872,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1475</v>
       </c>
@@ -13893,7 +13892,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1474</v>
       </c>
@@ -13913,7 +13912,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1474</v>
       </c>
@@ -13933,7 +13932,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1475</v>
       </c>
@@ -13953,7 +13952,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1475</v>
       </c>
@@ -13973,7 +13972,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1475</v>
       </c>
@@ -13999,20 +13998,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99F80EE-B930-AE45-9D4A-163325A2F9E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14026,7 +14025,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14040,7 +14039,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14054,7 +14053,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14068,7 +14067,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14082,7 +14081,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14096,7 +14095,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -14110,7 +14109,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14124,7 +14123,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -14138,7 +14137,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -14152,7 +14151,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -14166,7 +14165,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -14180,7 +14179,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -14194,7 +14193,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -14208,7 +14207,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -14222,7 +14221,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -14236,7 +14235,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -14250,7 +14249,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -14264,7 +14263,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -14278,7 +14277,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -14292,7 +14291,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -14306,7 +14305,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -14320,7 +14319,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -14334,7 +14333,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -14348,7 +14347,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -14362,7 +14361,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -14376,7 +14375,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -14390,7 +14389,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -14404,7 +14403,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -14418,7 +14417,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -14432,7 +14431,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -14446,7 +14445,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -14460,7 +14459,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -14474,7 +14473,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -14488,7 +14487,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -14502,7 +14501,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -14516,7 +14515,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -14530,7 +14529,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -14544,7 +14543,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -14558,7 +14557,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -14572,7 +14571,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -14586,7 +14585,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -14600,7 +14599,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -14614,7 +14613,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -14628,7 +14627,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -14642,7 +14641,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -14656,7 +14655,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -14670,7 +14669,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -14684,7 +14683,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -14698,7 +14697,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -14712,7 +14711,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -14726,7 +14725,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -14740,7 +14739,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -14754,7 +14753,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -14768,7 +14767,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -14782,7 +14781,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -14796,7 +14795,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -14810,7 +14809,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -14824,7 +14823,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -14838,7 +14837,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -14852,7 +14851,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -14866,7 +14865,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -14880,7 +14879,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -14894,7 +14893,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -14908,7 +14907,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -14922,7 +14921,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -14936,7 +14935,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -14950,7 +14949,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -14964,7 +14963,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -14978,7 +14977,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -14992,7 +14991,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -15006,7 +15005,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -15020,7 +15019,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -15034,7 +15033,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -15048,7 +15047,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -15062,7 +15061,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -15076,7 +15075,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -15090,7 +15089,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -15104,7 +15103,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -15118,7 +15117,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -15132,7 +15131,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -15146,7 +15145,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -15160,7 +15159,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -15174,7 +15173,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -15188,7 +15187,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -15202,7 +15201,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -15216,7 +15215,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -15230,7 +15229,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -15244,7 +15243,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -15258,7 +15257,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -15272,7 +15271,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -15286,7 +15285,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -15300,7 +15299,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -15314,7 +15313,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -15328,7 +15327,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -15342,7 +15341,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -15356,7 +15355,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -15370,7 +15369,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -15384,7 +15383,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -15398,7 +15397,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -15412,7 +15411,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -15426,7 +15425,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -15440,7 +15439,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -15454,7 +15453,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -15468,7 +15467,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -15482,7 +15481,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -15496,7 +15495,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -15510,7 +15509,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -15524,7 +15523,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -15538,7 +15537,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -15552,7 +15551,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -15566,7 +15565,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -15580,7 +15579,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -15594,7 +15593,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -15608,7 +15607,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -15622,7 +15621,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -15636,7 +15635,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -15650,7 +15649,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -15664,7 +15663,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -15678,7 +15677,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -15692,7 +15691,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -15706,7 +15705,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -15720,7 +15719,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -15734,7 +15733,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -15748,7 +15747,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -15762,7 +15761,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -15776,7 +15775,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -15790,7 +15789,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -15804,7 +15803,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -15818,7 +15817,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -15832,7 +15831,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -15846,7 +15845,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -15860,7 +15859,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -15874,7 +15873,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -15888,7 +15887,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -15902,7 +15901,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -15916,7 +15915,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -15930,7 +15929,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -15944,7 +15943,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -15958,7 +15957,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -15972,7 +15971,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -15986,7 +15985,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -16000,7 +15999,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -16014,7 +16013,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -16028,7 +16027,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -16042,7 +16041,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -16056,7 +16055,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -16070,7 +16069,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -16084,7 +16083,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -16098,7 +16097,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -16112,7 +16111,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -16126,7 +16125,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -16140,7 +16139,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -16154,7 +16153,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -16168,7 +16167,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -16182,7 +16181,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -16196,7 +16195,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -16210,7 +16209,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -16224,7 +16223,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -16238,7 +16237,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -16252,7 +16251,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -16266,7 +16265,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -16280,7 +16279,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -16294,7 +16293,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -16308,7 +16307,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -16322,7 +16321,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -16336,7 +16335,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -16350,7 +16349,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -16364,7 +16363,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -16378,7 +16377,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -16392,7 +16391,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -16406,7 +16405,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -16420,7 +16419,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -16434,7 +16433,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -16448,7 +16447,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -16462,7 +16461,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -16476,7 +16475,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -16490,7 +16489,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -16504,7 +16503,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -16518,7 +16517,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -16532,7 +16531,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -16546,7 +16545,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -16560,7 +16559,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -16574,7 +16573,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -16588,7 +16587,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -16602,7 +16601,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -16616,7 +16615,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -16630,7 +16629,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -16644,7 +16643,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -16658,7 +16657,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -16672,7 +16671,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -16686,7 +16685,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -16700,7 +16699,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -16714,7 +16713,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -16728,7 +16727,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -16742,7 +16741,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -16756,7 +16755,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -16770,7 +16769,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -16784,7 +16783,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -16798,7 +16797,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -16812,7 +16811,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -16826,7 +16825,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -16840,7 +16839,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -16854,7 +16853,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -16868,7 +16867,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -16882,7 +16881,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -16896,7 +16895,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -16910,7 +16909,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -16924,7 +16923,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -16938,7 +16937,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -16952,7 +16951,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -16966,7 +16965,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -16980,7 +16979,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -16994,7 +16993,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -17008,7 +17007,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -17022,7 +17021,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -17036,7 +17035,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -17050,7 +17049,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -17064,7 +17063,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -17078,7 +17077,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -17092,7 +17091,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -17106,7 +17105,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -17120,7 +17119,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -17134,7 +17133,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -17148,7 +17147,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -17162,7 +17161,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -17176,7 +17175,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -17190,7 +17189,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -17204,7 +17203,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -17218,7 +17217,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -17232,7 +17231,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -17246,7 +17245,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -17260,7 +17259,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -17274,7 +17273,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -17288,7 +17287,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -17302,7 +17301,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -17316,7 +17315,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -17330,7 +17329,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -17344,7 +17343,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -17358,7 +17357,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -17372,7 +17371,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -17386,7 +17385,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -17400,7 +17399,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -17414,7 +17413,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -17428,7 +17427,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -17442,7 +17441,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -17456,7 +17455,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -17470,7 +17469,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -17484,7 +17483,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -17498,7 +17497,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -17512,7 +17511,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -17526,7 +17525,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -17540,7 +17539,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -17554,7 +17553,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -17568,7 +17567,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -17582,7 +17581,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -17596,7 +17595,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -17610,7 +17609,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -17624,7 +17623,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -17638,7 +17637,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -17652,7 +17651,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -17666,7 +17665,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -17680,7 +17679,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -17694,7 +17693,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -17708,7 +17707,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -17722,7 +17721,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -17736,7 +17735,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -17750,7 +17749,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -17764,7 +17763,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -17778,7 +17777,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -17792,7 +17791,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -17806,7 +17805,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -17820,7 +17819,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -17834,7 +17833,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -17848,7 +17847,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -17862,7 +17861,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -17876,7 +17875,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -17890,7 +17889,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -17904,7 +17903,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -17918,7 +17917,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -17932,7 +17931,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -17946,7 +17945,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -17960,7 +17959,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -17974,7 +17973,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -17988,7 +17987,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -18002,7 +18001,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -18016,7 +18015,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -18030,7 +18029,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -18044,7 +18043,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -18058,7 +18057,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -18072,7 +18071,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -18086,7 +18085,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -18100,7 +18099,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -18114,7 +18113,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -18128,7 +18127,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -18142,7 +18141,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -18156,7 +18155,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -18170,7 +18169,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -18184,7 +18183,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -18198,7 +18197,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -18212,7 +18211,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -18226,7 +18225,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -18246,20 +18245,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C30F00C-C683-0548-B7C4-02FB1EBCAEF1}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F3" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.08203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1473</v>
       </c>
@@ -18278,11 +18278,8 @@
       <c r="F1" t="s">
         <v>1476</v>
       </c>
-      <c r="G1" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1474</v>
       </c>
@@ -18299,10 +18296,10 @@
         <v>305</v>
       </c>
       <c r="F2" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1474</v>
       </c>
@@ -18319,10 +18316,10 @@
         <v>725</v>
       </c>
       <c r="F3" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1475</v>
       </c>
@@ -18339,10 +18336,10 @@
         <v>307</v>
       </c>
       <c r="F4" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1475</v>
       </c>
@@ -18359,10 +18356,10 @@
         <v>610</v>
       </c>
       <c r="F5" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1475</v>
       </c>
@@ -18379,10 +18376,10 @@
         <v>1021</v>
       </c>
       <c r="F6" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1474</v>
       </c>
@@ -18399,10 +18396,10 @@
         <v>1274</v>
       </c>
       <c r="F7" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1474</v>
       </c>
@@ -18419,10 +18416,10 @@
         <v>337</v>
       </c>
       <c r="F8" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1475</v>
       </c>
@@ -18439,10 +18436,10 @@
         <v>796</v>
       </c>
       <c r="F9" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1475</v>
       </c>
@@ -18459,10 +18456,10 @@
         <v>644</v>
       </c>
       <c r="F10" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1475</v>
       </c>
@@ -18479,10 +18476,10 @@
         <v>586</v>
       </c>
       <c r="F11" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1474</v>
       </c>
@@ -18499,10 +18496,10 @@
         <v>1375</v>
       </c>
       <c r="F12" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1474</v>
       </c>
@@ -18519,10 +18516,10 @@
         <v>1001</v>
       </c>
       <c r="F13" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1475</v>
       </c>
@@ -18539,10 +18536,10 @@
         <v>1378</v>
       </c>
       <c r="F14" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1475</v>
       </c>
@@ -18559,10 +18556,10 @@
         <v>1379</v>
       </c>
       <c r="F15" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1475</v>
       </c>
@@ -18579,7 +18576,7 @@
         <v>1381</v>
       </c>
       <c r="F16" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
     </row>
   </sheetData>

--- a/VytrackTestUsers.xlsx
+++ b/VytrackTestUsers.xlsx
@@ -19,7 +19,7 @@
     <sheet name="QA3-all" sheetId="1" r:id="rId5"/>
     <sheet name="QA3-short" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="1480">
   <si>
     <t>username</t>
   </si>
@@ -4469,9 +4469,6 @@
   </si>
   <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>FAILED</t>
   </si>
   <si>
     <t>PASSED</t>
@@ -18248,8 +18245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F3" sqref="F2:F3"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -18316,7 +18313,7 @@
         <v>725</v>
       </c>
       <c r="F3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -18356,7 +18353,7 @@
         <v>610</v>
       </c>
       <c r="F5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -18376,7 +18373,7 @@
         <v>1021</v>
       </c>
       <c r="F6" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -18396,7 +18393,7 @@
         <v>1274</v>
       </c>
       <c r="F7" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -18416,7 +18413,7 @@
         <v>337</v>
       </c>
       <c r="F8" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -18456,7 +18453,7 @@
         <v>644</v>
       </c>
       <c r="F10" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -18476,7 +18473,7 @@
         <v>586</v>
       </c>
       <c r="F11" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -18496,7 +18493,7 @@
         <v>1375</v>
       </c>
       <c r="F12" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -18516,7 +18513,7 @@
         <v>1001</v>
       </c>
       <c r="F13" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -18556,7 +18553,7 @@
         <v>1379</v>
       </c>
       <c r="F15" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -18576,7 +18573,7 @@
         <v>1381</v>
       </c>
       <c r="F16" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
   </sheetData>
